--- a/SharkAttack_check4.xlsx
+++ b/SharkAttack_check4.xlsx
@@ -66778,7 +66778,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>lli</t>
+          <t>unknown sex</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
